--- a/log/test_log_10-27 1100.xlsx
+++ b/log/test_log_10-27 1100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,108 +458,1442 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-27 11:01:55</t>
+          <t>10-27 11:46:47</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://gtms.glovis.eu/il5/</t>
+          <t>https://hr-eu.kia.eucorp.local:50001/irj/portal</t>
         </is>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.430063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-27 11:01:56</t>
+          <t>10-27 11:47:47</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://hr.glovis.eu/</t>
+          <t>https://hr-eu.hyundai.eucorp.local:50001/irj/portal</t>
         </is>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.460448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-27 11:01:56</t>
+          <t>10-27 11:48:47</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://gcs.glovis.com.tr/</t>
+          <t>https://hr-kia.hkmr.local:50001/irj/portal</t>
         </is>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.049537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-27 11:01:56</t>
+          <t>10-27 11:49:47</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://elis.glovis.com.tr/htdocs/C/CLIN/cmnLogin.jsp</t>
+          <t>https://hr-hyundai.hkmr.local:50001/irj/portal</t>
         </is>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.035247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-27 11:01:56</t>
+          <t>10-27 11:50:47</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://10.122.51.53/login/loginfrm.asp</t>
+          <t>https://sac1.hyundai-autoever.eu/PasswordVault/logon.aspx?ReturnUrl=%2fPasswordVault%2f</t>
         </is>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.007315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-27 11:02:56</t>
+          <t>10-27 11:51:48</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://hr-eu.kia.eucorp.local:50001/irj/portal</t>
+          <t>https://sac2.hyundai-autoever.eu/PasswordVault/logon.aspx?ReturnUrl=%2fPasswordVault%2f</t>
         </is>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10-27 11:51:48</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://hmuk.europe-crm.net/</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.508019</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10-27 11:51:53</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://autoway.hyundai-global.net/</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.011007</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10-27 11:51:54</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://hmd.wa.hyundai-europe.com/Login.aspx?ReturnUrl=/default.aspx</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.425731</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10-27 11:51:54</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://dih.hyundai-europe.com:8443/loginForm.do</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.427039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10-27 11:51:55</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://myconnect.kia-europe.com:8443/loginForm.do</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.43151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10-27 11:52:55</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.mykia.de/</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10-27 11:52:55</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://eu-account.kia.com/auth/realms/eukiaidm/account/</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.478903</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10-27 11:53:56</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://eu-autoever.hyundai.eucorp.local:50101/irj/portal</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10-27 11:53:56</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://hap.hyundai-europe.com/login/loginPage</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.475171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10-27 11:53:56</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>http://10.122.27.20:4503/crx/de/index.jsp</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.011936</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10-27 11:53:56</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>http://10.122.27.21:4503/crx/de/index.jsp</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.009941</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10-27 11:53:56</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>http://10.122.27.22:4503/crx/de/index.jsp</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.010937</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10-27 11:53:56</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>http://10.122.27.23:4502/crx/de/index.jsp</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.010937</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10-27 11:53:56</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>http://10.122.46.75/content/hyundai/fr/fr.html</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.029718</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10-27 11:53:56</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>http://10.122.46.76/content/hyundai/fr/fr.html</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.023978</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10-27 11:53:56</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>http://10.122.46.77/content/hyundai/fr/fr.html</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.029167</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10-27 11:53:57</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://aem.hyundai.com/eu.html</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.721579</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10-27 11:53:58</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://author-aem.hyundai.com/libs/granite/core/content/login.html?resource=%2Faem%2Fstart.html&amp;$$login$$=%24%24login%24%24&amp;j_reason=unknown&amp;j_reason_code=unknown</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.427199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10-27 11:53:58</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://org-eu-www.hyundai.com/eu.html</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.829085</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10-27 11:53:59</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/be/fr.html</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.824642</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10-27 11:54:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/be/nl.html</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.925978</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10-27 11:54:01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/ch/de.html</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.411617</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10-27 11:54:01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/ch/de/modelle/all-new-kona-electric/konfigurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.49535</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10-27 11:54:02</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/ch/de/vertriebsnetz-schweiz.html</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.037661</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10-27 11:54:04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/ch/fr.html</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.233546</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10-27 11:54:04</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/ch/fr/modeles/all-new-kona-electric/configurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.498427</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10-27 11:54:05</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/ch/fr/reseau-suisse.html</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.78066</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10-27 11:54:06</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/ch/it.html</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.757222</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10-27 11:54:06</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/ch/it/modelli/all-new-kona-electric/konfigurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.478917</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10-27 11:54:07</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/ch/it/rete-svizzera.html</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.799186</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10-27 11:54:08</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/cz/cz.html</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.71008</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10-27 11:54:08</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/cz/modely.html</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.640427</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10-27 11:54:09</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/cz/modely/bayon/konfigurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.595933</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10-27 11:54:10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/de/de.html</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.482035</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10-27 11:54:10</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/de/de/beratung-kauf/entdecken-und-erwerben/angebot.html</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.608896</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10-27 11:54:11</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/de/de/beratung-kauf/entdecken-und-erwerben/haendlersuche.html</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.033465</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>10-27 11:54:12</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/de/de/beratung-kauf/entdecken-und-erwerben/probefahrt.html</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.636602</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10-27 11:54:13</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/de/de/hyundai-welt/sponsoring-und-events/eintracht.html</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.734911</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>10-27 11:54:15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/de/de/hyundai-welt/sponsoring-und-events/eintracht/eintracht-deals.html</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.326824</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10-27 11:54:16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/de/de/hyundai-welt/sponsoring-und-events/eintracht/sge-moments.html</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.683899</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10-27 11:54:16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/de/de/konfigurator/</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.517635</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10-27 11:54:17</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/de/de/modelle.html</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.732144</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10-27 11:54:18</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/de/de/newsletter.html</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.245001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10-27 11:54:20</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/es.html</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.714278</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10-27 11:54:21</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/es/modelos/kona-electrico-2021/configuracion.html#/powertrain</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.501425</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10-27 11:54:22</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/eu.html</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.264117</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10-27 11:54:23</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/fr/fr.html</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6712900000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>10-27 11:54:23</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/fr/fr/modeles/ioniq5/configurateur.html#/trims</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.508703</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>10-27 11:54:24</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/it.html</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8952639999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10-27 11:54:25</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/it/models/nuova-ioniq-5/configuratore.html#/trims</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.524545</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10-27 11:54:25</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/lu.html</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.599542</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>10-27 11:54:27</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/nl/nl.html</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.075292</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10-27 11:54:28</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/nl/nl/dealers.html</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.957747</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>10-27 11:54:29</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/nl/nl/modellen/kona-electric/configurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.534677</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10-27 11:54:30</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/no/no.html</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.634386</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10-27 11:54:30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/pl/pl.html</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.847706</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10-27 11:54:32</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/pl/pl/modele/ioniq5.html</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.158321</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10-27 11:54:32</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/pl/pl/modele/tucson/konfigurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.479873</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10-27 11:54:33</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/sk/sk.html</t>
+        </is>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.654207</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10-27 11:57:05</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/sk/sk/modely/kona-hybrid/konfigurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10-27 11:57:06</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/sk/sk/modely/nova-i10/konfigurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.62571</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>10-27 11:57:07</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/sk/sk/modely/nova-i20/konfigurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.758987</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>10-27 11:57:08</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/sk/sk/predaj/kontakty/autorizovane-predajne.html</t>
+        </is>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.690999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10-27 11:57:09</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/sk/sk/predaj/predaj/konfigurator.html</t>
+        </is>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.035989</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>10-27 11:57:10</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/sk/sk/sluzby/online-sluzby/cenova-ponuka.html</t>
+        </is>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.368332</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>10-27 11:57:11</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/sk/sk/sluzby/online-sluzby/testovacia-jazda.html</t>
+        </is>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.062994</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10-27 11:57:12</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/uk/en.html</t>
+        </is>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.368754</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10-27 11:57:12</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/uk/en/choose-model.html</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.409175</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10-27 11:57:13</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/uk/en/models/all-new-kona/configurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.104901</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10-27 11:57:14</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/uk/en/models/all-new-kona-hybrid/configurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.077502</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10-27 11:57:15</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/uk/en/models/ioniq5/configurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.410308</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10-27 11:57:15</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/uk/en/models/ioniq6/configurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.517276</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>10-27 11:57:16</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/uk/en/models/kona-electric/configurator.html#/trims</t>
+        </is>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.4541</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>10-27 11:57:16</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.com/uk/en/offers/new-cars/model.html</t>
+        </is>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.403688</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>10-27 11:57:17</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.hyundai.news/eu.html</t>
+        </is>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.940122</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
